--- a/analysis/tables/summary_tables_usda.xlsx
+++ b/analysis/tables/summary_tables_usda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamwilson/Desktop/Ocean Carrier Alliances Project/analysis/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C258AEC-6541-684F-878A-C1BE91FAA592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70897029-BF20-C243-822D-D60445AAEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29280" yWindow="980" windowWidth="24920" windowHeight="18880" activeTab="2" xr2:uid="{9EAB8E40-31D3-6348-8D66-163B18C85AE4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="157">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>The OCA to which the carrier belonged during the month</t>
+  </si>
+  <si>
+    <t>need to understand why these stats are different than lane-month table</t>
+  </si>
+  <si>
+    <t>Carrier Market Share</t>
+  </si>
+  <si>
+    <t>Percentage of total volume on the lane during the month sold by each carrier</t>
+  </si>
+  <si>
+    <t>Need to re-think coersing all 793 scacs across month and lane</t>
   </si>
 </sst>
 </file>
@@ -569,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,6 +639,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,15 +1942,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00809447-AE10-BB41-8AF1-9D4BF6E93E94}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.5" customWidth="1"/>
@@ -2027,11 +2042,24 @@
       <c r="B4" s="9">
         <v>80988000</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="9">
+        <v>793</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2040,11 +2068,21 @@
       <c r="B5" s="9">
         <v>653571</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="9">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="H5" t="s">
         <v>152</v>
       </c>
@@ -2054,26 +2092,26 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B6" s="9">
         <v>653571</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="17">
-        <v>0.44900000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E6" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="F6" s="17">
-        <v>6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
@@ -2081,266 +2119,250 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B7" s="9">
-        <v>80988000</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="18">
-        <v>1406</v>
-      </c>
-      <c r="E7" s="18">
-        <v>2378</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>48794</v>
+        <v>653571</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9">
         <v>80988000</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="20">
+        <v>1.77</v>
+      </c>
+      <c r="E8" s="20">
+        <v>57.6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>25915</v>
+      </c>
       <c r="H8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9">
         <v>80988000</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="20">
-        <v>3.49</v>
-      </c>
-      <c r="E9" s="20">
-        <v>2.02</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>14</v>
-      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="9">
         <v>80988000</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="20">
-        <v>6.41</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10" s="20">
-        <v>4.32</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
       </c>
       <c r="G10" s="19">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="9">
         <v>80988000</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="20">
-        <v>2.73</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1.33</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>7</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="9">
         <v>80988000</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="20">
-        <v>34.26</v>
-      </c>
-      <c r="E12" s="20">
-        <v>18.2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>65</v>
-      </c>
+      <c r="D12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="9">
         <v>80988000</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="20">
-        <v>21.25</v>
-      </c>
-      <c r="E13" s="20">
-        <v>12.3</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>44</v>
-      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="9">
         <v>80988000</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="20">
-        <v>6.73</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3.76</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>11</v>
-      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="9">
+        <v>80988000</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="9">
-        <v>97065</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B16" s="9">
+        <v>653571</v>
+      </c>
+      <c r="C16" s="11">
         <v>76</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="9">
-        <v>49736</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="21">
-        <v>1603.67</v>
-      </c>
-      <c r="E16" s="21">
-        <v>760.8</v>
-      </c>
-      <c r="F16" s="21">
-        <v>400</v>
-      </c>
-      <c r="G16" s="21">
-        <v>8250</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B17" s="9">
+        <v>345480</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9">
-        <v>49736</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="21">
-        <v>1237.06</v>
-      </c>
-      <c r="E17" s="21">
-        <v>528.16</v>
-      </c>
-      <c r="F17" s="21">
-        <v>310</v>
-      </c>
-      <c r="G17" s="21">
-        <v>5070</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="B18" s="9">
+        <v>345480</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" t="s">
         <v>113</v>
       </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
